--- a/biology/Zoologie/Coureur/Coureur.xlsx
+++ b/biology/Zoologie/Coureur/Coureur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un organisme coureur est celui qui est spécialement adapté à courir. Les organismes coureurs sont généralement adaptés à la course longue distance à grande vitesse, plutôt que des animaux, avec une accélération importante sur de courtes distances; ainsi, un guépard est considéré comme coureur, tandis qu'un leopard ne l'est pas. Parmi les vertébrés, les animaux de moins de 1 kg de masse sont rarement considérés comme coureur, comme ils se déplacent généralement en une série de courtes accélérations plutôt qu'à une vitesse constante. Tous les vertébrés coureur sont endothermique, permettant des hauts taux métaboliques et une bonne endurance, mais il est possible que certaines espèces disparues ont été ectothermes.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs taxons notables sont coureurs, certains mammifères (comme le carcajou et le loup, les ongulés, les agoutis, et les kangourous) et les oiseaux (comme l'autruche), ainsi que certains dinosaures (comme les théropodes, et Heterodontosauridae). Plusieurs archosaures aujourd'hui éteints ont également été coureurs, y compris les crocodylomorphes Pristichampsus, Hesperosuchus, et plusieurs genres au sein de Notosuchia.
  Portail de la zoologie                     </t>
